--- a/data/trans_orig/Q64C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Edad-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>34.53913863676141</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>33.47700197105464</v>
+        <v>33.47700197105463</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>38.18455968498587</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>37.64518405133261</v>
+        <v>37.58245852879591</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>37.09538564743666</v>
+        <v>37.38763884825151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32.73425805359638</v>
+        <v>32.6492072882204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35.0425700899304</v>
+        <v>35.19805822566318</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>34.9095897875429</v>
+        <v>34.86407690406352</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>30.8075199033638</v>
+        <v>30.81355860200189</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>32.21581555465015</v>
+        <v>32.14825573503357</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>30.09486512191662</v>
+        <v>30.57679517757447</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>36.83825222884546</v>
+        <v>36.75991089668157</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34.66249422992267</v>
+        <v>34.73863821307297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33.23826800941388</v>
+        <v>33.40637587794871</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>34.14843918211875</v>
+        <v>33.88127853969244</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>41.26863207217251</v>
+        <v>41.22418176770883</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>41.86598752869351</v>
+        <v>42.10525829963891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38.82339890917722</v>
+        <v>38.55459634388784</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41.23448552427319</v>
+        <v>41.47579401876651</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>38.7541329504245</v>
+        <v>38.52611575426819</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>36.07253295213852</v>
+        <v>36.2334600765099</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>36.66053831901922</v>
+        <v>36.7765376115052</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>35.87716510473481</v>
+        <v>36.02667616281374</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>39.525397977693</v>
+        <v>39.52827515495447</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38.41450895317566</v>
+        <v>38.36246506470302</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36.96177209067076</v>
+        <v>37.25603628690391</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>38.47556179155252</v>
+        <v>38.36027136309076</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>39.41388865503845</v>
+        <v>39.42925772040461</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>39.36688026432913</v>
+        <v>39.49531353576334</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37.33492444322297</v>
+        <v>37.37700493754375</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37.51536562166564</v>
+        <v>37.58187803992757</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>35.19855779961679</v>
+        <v>35.21429640646735</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>34.93804733867955</v>
+        <v>34.9328241201927</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>33.69421292544821</v>
+        <v>33.63105053736055</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>34.75399214531841</v>
+        <v>34.6832786469946</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>38.13756032309811</v>
+        <v>38.06528026352108</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37.83930801393544</v>
+        <v>37.83155225624493</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36.16158179090738</v>
+        <v>36.03025416834126</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>36.5142396118464</v>
+        <v>36.49026110202598</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>41.05178697341741</v>
+        <v>41.10906706953335</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>41.45448885316163</v>
+        <v>41.57645700634325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>39.64834068049186</v>
+        <v>39.7218572943486</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>39.37386105382187</v>
+        <v>39.52241928856805</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>37.71209141741162</v>
+        <v>37.73583832300924</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>37.31956252532718</v>
+        <v>37.27030326867553</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>36.60049664774537</v>
+        <v>36.53130263215318</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>37.06022355401676</v>
+        <v>36.88927052146055</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>39.59844340885555</v>
+        <v>39.51417606920344</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39.36099912867362</v>
+        <v>39.40805404389447</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37.99536543463528</v>
+        <v>37.92550632831028</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>38.05462027000256</v>
+        <v>38.0084312056929</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>39.77196505379973</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39.67719725283175</v>
+        <v>39.67719725283177</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>36.88189145594001</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>40.70288018222868</v>
+        <v>40.63353775638307</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>40.52623709582914</v>
+        <v>40.44992056767761</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38.82529592401998</v>
+        <v>38.81719394065367</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38.76924345347894</v>
+        <v>38.86420612499999</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>35.53781666783785</v>
+        <v>35.52724531027772</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.26994597113664</v>
+        <v>34.33265259642182</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>33.40880263888222</v>
+        <v>33.4935922366796</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>34.62965872928896</v>
+        <v>34.58430044585268</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>39.25282369886487</v>
+        <v>39.22294943084324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38.26210626711184</v>
+        <v>38.2203268407653</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36.92145592552589</v>
+        <v>36.94429521910055</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>37.32182546091803</v>
+        <v>37.31996977909954</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>42.53258016519965</v>
+        <v>42.47282141835459</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>42.39697414334599</v>
+        <v>42.32283476215041</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40.77173515067919</v>
+        <v>40.7834348775103</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40.49135619145188</v>
+        <v>40.52143039289626</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>38.41610745829839</v>
+        <v>38.32974052186773</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>37.00715063397282</v>
+        <v>37.08212049627934</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>36.24400948008257</v>
+        <v>36.22988148208684</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>36.1472905053193</v>
+        <v>36.24352656104695</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>40.81071058994834</v>
+        <v>40.73800967680413</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39.96258174498121</v>
+        <v>39.85301826243466</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38.62960912076221</v>
+        <v>38.59262985342379</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>38.49128052431024</v>
+        <v>38.48589618651747</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>40.19781944949535</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40.81016146833832</v>
+        <v>40.81016146833831</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>39.74048357056032</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>40.89341679629955</v>
+        <v>40.71608401314563</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>40.67303779301058</v>
+        <v>40.75579629762702</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39.07678322979311</v>
+        <v>39.04293084464322</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39.95144715995252</v>
+        <v>40.03227175699413</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>37.92720261707579</v>
+        <v>38.00005457558401</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.79672399832707</v>
+        <v>33.84278092350712</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>33.39791466960818</v>
+        <v>33.36927196077631</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>34.76668755673697</v>
+        <v>34.68991525768741</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>40.36331847392024</v>
+        <v>40.32330471362158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>38.39815380462158</v>
+        <v>38.46647415180311</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37.08335993182368</v>
+        <v>37.18365452739936</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>37.79137155496699</v>
+        <v>37.80472313779251</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>42.70532673820286</v>
+        <v>42.64783446389941</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>42.5412892839674</v>
+        <v>42.63516204424092</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>41.40177388321509</v>
+        <v>41.25822261383896</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>41.76276879402403</v>
+        <v>41.72601558209449</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>42.15609430559163</v>
+        <v>42.04132462561039</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>37.59017956240096</v>
+        <v>37.41047330701755</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>36.5965291503586</v>
+        <v>36.55976309929517</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>36.33047420896475</v>
+        <v>36.27034264419662</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>42.13783981502344</v>
+        <v>42.12608324656163</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>40.25376429589257</v>
+        <v>40.29182161647812</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39.07795686593828</v>
+        <v>39.08758670853322</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>38.99873781109356</v>
+        <v>39.05719157779642</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>38.29642469113173</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>38.53453041903858</v>
+        <v>38.53453041903857</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>41.13888382406892</v>
+        <v>41.06079942957823</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>41.08482282074371</v>
+        <v>40.95549807858988</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38.70823030178028</v>
+        <v>38.90416680408521</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39.68614875048313</v>
+        <v>39.64644275494018</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>33.68106945549059</v>
+        <v>33.80344919950263</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>36.92792995356026</v>
+        <v>37.19514004951925</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>32.3485386468383</v>
+        <v>32.52073503479954</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>34.40331703652181</v>
+        <v>34.60509092290955</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>39.72177635280921</v>
+        <v>39.49509469375314</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40.40786870274864</v>
+        <v>40.48119782102236</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36.79683187089389</v>
+        <v>36.9111785828642</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>37.80325698809956</v>
+        <v>37.74770686533584</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>44.19376883667657</v>
+        <v>44.14276166079139</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>44.54047597714271</v>
+        <v>44.3674998083957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42.13243341130547</v>
+        <v>42.185674668778</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>41.4314493186306</v>
+        <v>41.39481100167352</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>39.31793685458846</v>
+        <v>39.52171807155989</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>41.89076672826623</v>
+        <v>42.10283616979623</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>36.99538522228666</v>
+        <v>37.02439943417846</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>36.48626784008496</v>
+        <v>36.57997645713339</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>42.31884465193555</v>
+        <v>42.17862127820346</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>43.235365842322</v>
+        <v>43.30864260808409</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39.64536586247282</v>
+        <v>39.7334955255011</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>39.23871960581172</v>
+        <v>39.19184738162738</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>34.91270506454786</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>35.47262328114817</v>
+        <v>35.47262328114818</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>39.73893473556407</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>40.67372033544407</v>
+        <v>40.66708590724869</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>40.69367194576189</v>
+        <v>40.76892471584781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38.9005488539422</v>
+        <v>38.88394577353625</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39.41957650445424</v>
+        <v>39.42872817208418</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>36.37315037885321</v>
+        <v>36.41483150857538</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>35.09613826204098</v>
+        <v>35.12964039736443</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>34.18364955496239</v>
+        <v>34.08957683490197</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>35.01094750963387</v>
+        <v>34.99452249060743</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>39.35006301053903</v>
+        <v>39.29678297181754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38.62915240765607</v>
+        <v>38.69133745763402</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37.05877185828798</v>
+        <v>37.07833674502789</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>37.61876896188799</v>
+        <v>37.62069725171307</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>41.63212460290656</v>
+        <v>41.60328957258641</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>41.75191652684767</v>
+        <v>41.80352996846838</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40.07886364182713</v>
+        <v>40.03993975416065</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40.310868078153</v>
+        <v>40.29138830750335</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>37.91307691693916</v>
+        <v>37.97840135716662</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>36.72245169575228</v>
+        <v>36.6312780330632</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>35.61226896322137</v>
+        <v>35.63480011894631</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>35.92005574855075</v>
+        <v>35.88864105417905</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>40.11658695237959</v>
+        <v>40.13129766159863</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>39.53592194399675</v>
+        <v>39.56656363847959</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>37.98286878217377</v>
+        <v>38.02326105517072</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>38.2694020465194</v>
+        <v>38.26173085084928</v>
       </c>
     </row>
     <row r="22">
